--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/github/rujinlong/viroprofiler_paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF6223-11CD-3547-A51B-D4AD4151E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419FCD55-4E3E-A544-BCC3-21698A06C8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4EEB315C-72B7-9141-B2EF-148DBB05B0C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4EEB315C-72B7-9141-B2EF-148DBB05B0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>sample_id</t>
   </si>
@@ -80,6 +80,36 @@
   </si>
   <si>
     <t>UC</t>
+  </si>
+  <si>
+    <t>H26</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>UC19</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>UC21</t>
+  </si>
+  <si>
+    <t>UC30</t>
+  </si>
+  <si>
+    <t>UC28</t>
   </si>
 </sst>
 </file>
@@ -431,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DAE77-FBFA-FB4E-AC22-4F63EE9E57B3}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,48 +523,128 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{D00DAE77-FBFA-FB4E-AC22-4F63EE9E57B3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
-      <sortCondition ref="A1:A11"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+      <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
